--- a/CityStatues.xlsx
+++ b/CityStatues.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Benjamzino/upenn/Projects/team3dom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamzino/upenn/Projects/team3dom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63311192-E5B3-E64A-AA24-BEE1E0F1274A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40100D4-CBAE-E148-A65B-F104A9A5D2B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16080" xr2:uid="{87A22AC5-9C90-0945-918F-9C1B683EFB26}"/>
   </bookViews>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20250FF0-79A6-9B49-8FB5-F47D5FA551D8}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
